--- a/biology/Botanique/Rosa_pouzinii/Rosa_pouzinii.xlsx
+++ b/biology/Botanique/Rosa_pouzinii/Rosa_pouzinii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosa pouzinii, églantier de Pouzin ou rosier de Pouzin[1], est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier prenant la forme d'un arbrisseau à feuilles caduques et à floraison non remontante.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosa pouzinii, églantier de Pouzin ou rosier de Pouzin, est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier prenant la forme d'un arbrisseau à feuilles caduques et à floraison non remontante.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'églantier de Pouzin pousse dans les clairières, buissons, jusqu'à 1 000 m d'altitude.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pourtour méditerranéen tout entier -où l'on trouve aussi l'églantier (Rosa canina). Ce taxon n'est pas protégé.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est reprise à l'Inventaire national du patrimoine naturel sous la fiche « Rosa pouzinii Tratt., 1823 - Rosier de Pouzin, Églantier de Pouzin (Français) (Equisetopsida Rosales) »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est reprise à l'Inventaire national du patrimoine naturel sous la fiche « Rosa pouzinii Tratt., 1823 - Rosier de Pouzin, Églantier de Pouzin (Français) (Equisetopsida Rosales) ».
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'églantier de Pouzin est un arbrisseau de 1 à 2 m de haut, aux branches relativement minces, souples, flexueux, souvent marquées de rouge.
 Ses feuilles sont alterne, pennées en nombre impair, se présentant généralement avec six paires de folioles, la paire intérieure étant la plus petite.
